--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/82/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/82/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5125125125125125</v>
+        <v>0.9839983998399841</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1867.867867867868</v>
+        <v>1295.979597959796</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06086086086086086</v>
+        <v>0.06805680568056806</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4334334334334334</v>
+        <v>0.4448444844484449</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1383.383383383383</v>
+        <v>849.8149814981498</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>631.6316316316316</v>
+        <v>757.965796579658</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>540.5405405405406</v>
+        <v>53.75247524752475</v>
       </c>
     </row>
   </sheetData>
